--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEVELOPER\Documents\UiPath\DataCleaner\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEVELOPER\Documents\UiPath\RPA_BAG_SOSR_DataCleaner\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD67AF4C-EEE6-4459-8474-9DAEAFBDFEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAE3E48-CD58-4124-AA64-340FDA9189ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2838,8 +2838,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEVELOPER\Documents\UiPath\RPA_BAG_SOSR_DataCleaner\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DAE3E48-CD58-4124-AA64-340FDA9189ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BAC1D0-E1D7-4BDF-8F96-24AAF94B2718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -1668,7 +1668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -2838,7 +2838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DEVELOPER\Documents\UiPath\RPA_BAG_SOSR_DataCleaner\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22BAC1D0-E1D7-4BDF-8F96-24AAF94B2718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C63057-51B0-4C1C-A237-3937C752C2D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
   <si>
     <t>Name</t>
   </si>
@@ -148,9 +148,6 @@
     <t>EntitiesInScope</t>
   </si>
   <si>
-    <t>Flights;HotelsSearchStatus;HotelsRoomsOptions;Hotels;PassengersRooms;PassengersFares</t>
-  </si>
-  <si>
     <t>This will be split in an array, used further in the process.</t>
   </si>
   <si>
@@ -209,6 +206,15 @@
   </si>
   <si>
     <t>Number of hours ago to delete records in BAHSOSRHotelsRoomsOptions entity. will be now- X hours</t>
+  </si>
+  <si>
+    <t>HoursBookingData</t>
+  </si>
+  <si>
+    <t>BAH_SOSR_DeleteAfterXHours_BookingData</t>
+  </si>
+  <si>
+    <t>Flights;HotelsSearchStatus;HotelsRoomsOptions;Hotels;PassengersRooms;PassengersFares;BookingData</t>
   </si>
 </sst>
 </file>
@@ -586,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -661,10 +667,10 @@
         <v>40</v>
       </c>
       <c r="B8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
         <v>41</v>
-      </c>
-      <c r="C8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
@@ -1668,7 +1674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z988"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -1855,7 +1861,7 @@
     <row r="20" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="21" spans="1:3" ht="14.25" customHeight="1">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B21">
         <v>50</v>
@@ -2839,7 +2845,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -2888,71 +2894,78 @@
     </row>
     <row r="2" spans="1:26" ht="14.25" customHeight="1">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="14.25" customHeight="1">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="14.25" customHeight="1">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="14.25" customHeight="1">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:26" ht="14.25" customHeight="1"/>
+    <row r="8" spans="1:26" ht="14.25" customHeight="1">
+      <c r="A8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+    </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
     <row r="11" spans="1:26" ht="14.25" customHeight="1"/>
